--- a/Testbed/CB Trip logics.xlsx
+++ b/Testbed/CB Trip logics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n9871586\OneDrive - Queensland University of Technology\Desktop\PhD project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xuelei Wang\Dropbox\Ray\Project data\Simulation testbed for Stage 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{090C9F56-D925-44D3-9202-A2B69DC3F2A6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820D40E4-D930-4237-9929-8AD8109FD1F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -349,6 +349,39 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -356,9 +389,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -366,36 +396,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -679,33 +679,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" customWidth="1"/>
-    <col min="7" max="7" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="41.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.5546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1"/>
+    <col min="7" max="7" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="41.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:8" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-    </row>
-    <row r="2" spans="1:8" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+    </row>
+    <row r="2" spans="1:8" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -731,7 +731,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -741,13 +741,13 @@
       <c r="C3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="13" t="s">
         <v>26</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="26" t="s">
         <v>28</v>
       </c>
       <c r="G3" s="4" t="s">
@@ -757,7 +757,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -767,13 +767,13 @@
       <c r="C4" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="19"/>
+      <c r="D4" s="14"/>
       <c r="E4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="16"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F4" s="26"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
@@ -783,13 +783,13 @@
       <c r="C5" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="19"/>
+      <c r="D5" s="14"/>
       <c r="E5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="16"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F5" s="26"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
@@ -799,11 +799,11 @@
       <c r="C6" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="19"/>
+      <c r="D6" s="14"/>
       <c r="E6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="16"/>
+      <c r="F6" s="26"/>
       <c r="G6" s="4" t="s">
         <v>49</v>
       </c>
@@ -811,228 +811,218 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="15" t="s">
+      <c r="D7" s="14"/>
+      <c r="E7" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="12" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-    </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="17"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+    </row>
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="15" t="s">
+      <c r="D9" s="14"/>
+      <c r="E9" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15" t="s">
+      <c r="F9" s="12"/>
+      <c r="G9" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="H9" s="12" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-    </row>
-    <row r="11" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="17"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+    </row>
+    <row r="11" spans="1:8" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="13" t="s">
+      <c r="D11" s="14"/>
+      <c r="E11" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="24" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
+    <row r="12" spans="1:8" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-    </row>
-    <row r="13" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="27"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+    </row>
+    <row r="13" spans="1:8" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="13" t="s">
+      <c r="D13" s="14"/>
+      <c r="E13" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="13"/>
-    </row>
-    <row r="14" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
+      <c r="F13" s="24"/>
+    </row>
+    <row r="14" spans="1:8" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-    </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="27"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+    </row>
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="14" t="s">
+      <c r="D15" s="14"/>
+      <c r="E15" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="F15" s="25" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="26"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C16" s="21"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="27"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-    </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="22"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+    </row>
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="19"/>
-      <c r="E18" s="14" t="s">
+      <c r="D18" s="14"/>
+      <c r="E18" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="F18" s="14"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F18" s="25"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="26"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C19" s="21"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="27"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="D3:D20"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C17"/>
     <mergeCell ref="C18:C20"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="F11:F14"/>
@@ -1047,6 +1037,16 @@
     <mergeCell ref="E13:E14"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="D3:D20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
